--- a/assets/uploads/templates/altas.xlsx
+++ b/assets/uploads/templates/altas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t>PRECIO</t>
-  </si>
-  <si>
     <t>ALTA DE PRODUCTOS</t>
   </si>
   <si>
-    <t>UM</t>
+    <t>CÓDIGO PRODUCTO SIMILAR</t>
   </si>
   <si>
-    <t>CÓDIGO PRODUCTO SIMILAR</t>
+    <t>CÓDIGO PIEZA</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN PIEZA</t>
+  </si>
+  <si>
+    <t>PRECIO PIEZA</t>
+  </si>
+  <si>
+    <t>NUM EN CAJA</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
@@ -143,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,7 +455,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +469,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -468,19 +478,19 @@
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
